--- a/Fall2024/CS5567-0002/FinalProject/results.xlsx
+++ b/Fall2024/CS5567-0002/FinalProject/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasjones/workspace/UMKC/Fall2024/CS5567-0002/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17715891-0CCC-0048-A2FB-54BA929F7220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761625D8-6056-B14F-8510-963A5601C215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36060" yWindow="6720" windowWidth="35660" windowHeight="17440" activeTab="1" xr2:uid="{30DE3CE5-CDD7-744D-B39D-44AF91320776}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Trial</t>
   </si>
@@ -201,13 +201,29 @@
    macro avg       0.83      0.81      0.81     10000
 weighted avg       0.83      0.81      0.81     10000</t>
   </si>
+  <si>
+    <t xml:space="preserve">              precision    recall  f1-score   support
+           0       0.84      0.88      0.86      1000
+           1       0.94      0.93      0.93      1000
+           2       0.76      0.79      0.77      1000
+           3       0.84      0.63      0.72      1000
+           4       0.77      0.92      0.84      1000
+           5       0.85      0.77      0.80      1000
+           6       0.85      0.92      0.88      1000
+           7       0.92      0.89      0.90      1000
+           8       0.84      0.95      0.89      1000
+           9       0.95      0.88      0.92      1000
+    accuracy                           0.85     10000
+   macro avg       0.86      0.85      0.85     10000
+weighted avg       0.86      0.85      0.85     10000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -291,25 +307,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -888,10 +904,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB9658-3780-284B-BFDA-BF06FE20D7A1}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1139,6 +1155,47 @@
       </c>
       <c r="N7" s="14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="207" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="G8" s="16">
+        <v>64</v>
+      </c>
+      <c r="H8" s="16">
+        <v>50</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.109</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.85</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Fall2024/CS5567-0002/FinalProject/results.xlsx
+++ b/Fall2024/CS5567-0002/FinalProject/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasjones/workspace/UMKC/Fall2024/CS5567-0002/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wortcook/Workspace/UMKC/Fall2024/CS5567-0002/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F782A4-CC16-2A41-BFE4-3DD634FE8830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91763229-6B88-284D-910A-0958A5FCAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36060" yWindow="6720" windowWidth="55020" windowHeight="19960" xr2:uid="{30DE3CE5-CDD7-744D-B39D-44AF91320776}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24640" xr2:uid="{30DE3CE5-CDD7-744D-B39D-44AF91320776}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Train Acc</t>
   </si>
@@ -112,13 +112,28 @@
   <si>
     <t>Delta Acc</t>
   </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Val Acc</t>
+  </si>
+  <si>
+    <t>Val Loss</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Seq Len</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -156,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,69 +296,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -367,28 +376,76 @@
     <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7143,1118 +7200,1210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FB9658-3780-284B-BFDA-BF06FE20D7A1}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="26"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
     <col min="3" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="10.83203125" style="26"/>
+    <col min="7" max="7" width="10.83203125" style="22"/>
     <col min="8" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="10.83203125" style="22"/>
     <col min="13" max="16" width="10.83203125" style="1"/>
-    <col min="17" max="17" width="10.83203125" style="26"/>
+    <col min="17" max="17" width="10.83203125" style="22"/>
     <col min="18" max="21" width="10.83203125" style="1"/>
-    <col min="22" max="22" width="10.83203125" style="26"/>
+    <col min="22" max="22" width="10.83203125" style="22"/>
     <col min="23" max="26" width="10.83203125" style="1"/>
-    <col min="27" max="27" width="10.83203125" style="26"/>
+    <col min="27" max="27" width="10.83203125" style="22"/>
     <col min="28" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="2" t="s">
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="3" t="s">
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
     </row>
     <row r="2" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="2" t="s">
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="3" t="s">
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="31"/>
     </row>
     <row r="3" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="27" t="s">
+      <c r="Q3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="22" t="s">
+      <c r="V3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Y3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AA3" s="27" t="s">
+      <c r="AA3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AD3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AE3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AF3" s="36" t="s">
+      <c r="AF3" s="32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:32" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="19">
         <v>147</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>0.96960000000000002</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>0.86040000000000005</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.66839999999999999</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="26">
         <v>147</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="27">
         <v>0.96960000000000002</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="28">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="27">
         <v>0.86040000000000005</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="28">
         <v>0.66839999999999999</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="24">
         <v>120</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="11">
         <v>0.54110000000000003</v>
       </c>
-      <c r="N4" s="14">
+      <c r="N4" s="11">
         <v>1.6433</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="11">
         <v>0.51300000000000001</v>
       </c>
-      <c r="P4" s="14">
+      <c r="P4" s="11">
         <v>1.8446</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="24">
         <v>138</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="11">
         <v>0.39389999999999997</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="11">
         <v>2.4592000000000001</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="11">
         <v>0.30590000000000001</v>
       </c>
-      <c r="U4" s="14">
+      <c r="U4" s="11">
         <v>3.1008</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="24">
         <v>203</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="11">
         <v>0.67730000000000001</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="11">
         <v>1.1341000000000001</v>
       </c>
-      <c r="Y4" s="14">
+      <c r="Y4" s="11">
         <v>0.39129999999999998</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="12">
         <v>3.0508000000000002</v>
       </c>
-      <c r="AA4" s="28">
+      <c r="AA4" s="24">
         <v>62</v>
       </c>
-      <c r="AB4" s="14">
+      <c r="AB4" s="11">
         <v>0.83640000000000003</v>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="11">
         <v>0.46139999999999998</v>
       </c>
-      <c r="AD4" s="14">
+      <c r="AD4" s="11">
         <v>0.82750000000000001</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="11">
         <v>0.50839999999999996</v>
       </c>
-      <c r="AF4" s="15">
+      <c r="AF4" s="12">
         <f>J4-AD4</f>
         <v>3.290000000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>109</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="1">
         <v>0.996</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="1">
         <v>1.21E-2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="1">
         <v>0.89900000000000002</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="1">
         <v>0.56289999999999996</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <v>109</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="30">
         <v>0.996</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="30">
         <v>1.21E-2</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="30">
         <v>0.89900000000000002</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="30">
         <v>0.56289999999999996</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="20">
         <v>106</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="1">
         <v>0.51029999999999998</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="1">
         <v>1.7492000000000001</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="1">
         <v>0.40250000000000002</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="1">
         <v>2.3172999999999999</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="20">
         <v>145</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="1">
         <v>0.3604</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="1">
         <v>2.6295000000000002</v>
       </c>
-      <c r="T5" s="18">
+      <c r="T5" s="1">
         <v>0.2104</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="1">
         <v>3.6554000000000002</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="20">
         <v>207</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="1">
         <v>0.76859999999999995</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="1">
         <v>0.76959999999999995</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="1">
         <v>0.43930000000000002</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="15">
         <v>3.1861999999999999</v>
       </c>
-      <c r="AA5" s="24">
+      <c r="AA5" s="20">
         <v>66</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="1">
         <v>0.86399999999999999</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="1">
         <v>0.38440000000000002</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="1">
         <v>0.86370000000000002</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="1">
         <v>0.39839999999999998</v>
       </c>
-      <c r="AF5" s="37">
+      <c r="AF5" s="33">
         <f t="shared" ref="AF5:AF12" si="0">J5-AD5</f>
         <v>3.5299999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="20">
         <v>122</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="1">
         <v>0.99780000000000002</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="1">
         <v>7.6E-3</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="1">
         <v>0.89980000000000004</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="1">
         <v>0.59189999999999998</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="29">
         <v>122</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="30">
         <v>0.99780000000000002</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="30">
         <v>7.6E-3</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="30">
         <v>0.89980000000000004</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="30">
         <v>0.59189999999999998</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="20">
         <v>104</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="1">
         <v>0.39400000000000002</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="1">
         <v>2.2530999999999999</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="1">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="1">
         <v>4.3795000000000002</v>
       </c>
-      <c r="Q6" s="24">
+      <c r="Q6" s="20">
         <v>107</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="1">
         <v>0.24129999999999999</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="1">
         <v>3.2606999999999999</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="1">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="1">
         <v>5.4541000000000004</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="20">
         <v>239</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="1">
         <v>0.79090000000000005</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="1">
         <v>0.69750000000000001</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="1">
         <v>0.4113</v>
       </c>
-      <c r="Z6" s="19">
+      <c r="Z6" s="15">
         <v>3.6299000000000001</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="20">
         <v>73</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="1">
         <v>0.84279999999999999</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="1">
         <v>0.44209999999999999</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="1">
         <v>0.79269999999999996</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="1">
         <v>0.60919999999999996</v>
       </c>
-      <c r="AF6" s="37">
+      <c r="AF6" s="33">
         <f t="shared" si="0"/>
         <v>0.10710000000000008</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>101</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="1">
         <v>0.99760000000000004</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="1">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="1">
         <v>0.90859999999999996</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="1">
         <v>0.48320000000000002</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>101</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="30">
         <v>0.99760000000000004</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="30">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="30">
         <v>0.90859999999999996</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="30">
         <v>0.48320000000000002</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="20">
         <v>109</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="1">
         <v>0.35149999999999998</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="1">
         <v>2.4356</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="1">
         <v>0.2303</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="1">
         <v>3.0962000000000001</v>
       </c>
-      <c r="Q7" s="24">
+      <c r="Q7" s="20">
         <v>132</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="1">
         <v>0.21099999999999999</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="1">
         <v>3.4131</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="1">
         <v>0.10730000000000001</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="1">
         <v>4.2687999999999997</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="20">
         <v>300</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="1">
         <v>0.80830000000000002</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="1">
         <v>0.6341</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="1">
         <v>0.46970000000000001</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="15">
         <v>3.2608000000000001</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AA7" s="20">
         <v>58</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="1">
         <v>0.83430000000000004</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="1">
         <v>0.47470000000000001</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="1">
         <v>0.84740000000000004</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="1">
         <v>0.44269999999999998</v>
       </c>
-      <c r="AF7" s="37">
+      <c r="AF7" s="33">
         <f t="shared" si="0"/>
         <v>6.1199999999999921E-2</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>121</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="1">
         <v>0.99790000000000001</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="1">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="1">
         <v>0.90959999999999996</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="1">
         <v>0.49199999999999999</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="29">
         <v>121</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="30">
         <v>0.99790000000000001</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="30">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="30">
         <v>0.90959999999999996</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="30">
         <v>0.49199999999999999</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="20">
         <v>94</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="1">
         <v>0.34810000000000002</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="1">
         <v>2.4295</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="1">
         <v>0.29959999999999998</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="1">
         <v>2.7204000000000002</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="20">
         <v>109</v>
       </c>
-      <c r="R8" s="18">
+      <c r="R8" s="1">
         <v>0.20630000000000001</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="1">
         <v>3.4317000000000002</v>
       </c>
-      <c r="T8" s="18">
+      <c r="T8" s="1">
         <v>0.1406</v>
       </c>
-      <c r="U8" s="18">
+      <c r="U8" s="1">
         <v>3.9559000000000002</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="20">
         <v>300</v>
       </c>
-      <c r="W8" s="18">
+      <c r="W8" s="1">
         <v>0.8034</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="1">
         <v>0.65210000000000001</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="1">
         <v>0.46810000000000002</v>
       </c>
-      <c r="Z8" s="19">
+      <c r="Z8" s="15">
         <v>3.2454999999999998</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AA8" s="20">
         <v>54</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="1">
         <v>0.84060000000000001</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="1">
         <v>0.4667</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="1">
         <v>0.85640000000000005</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="1">
         <v>0.41849999999999998</v>
       </c>
-      <c r="AF8" s="37">
+      <c r="AF8" s="33">
         <f t="shared" si="0"/>
         <v>5.3199999999999914E-2</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="20">
         <v>128</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="1">
         <v>0.99770000000000003</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="1">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="1">
         <v>0.90739999999999998</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="1">
         <v>0.50519999999999998</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>128</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="30">
         <v>0.99770000000000003</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="30">
         <v>0.90739999999999998</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="30">
         <v>0.50519999999999998</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="20">
         <v>102</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="1">
         <v>0.34720000000000001</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="1">
         <v>2.4582000000000002</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="1">
         <v>0.32769999999999999</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="1">
         <v>2.5737999999999999</v>
       </c>
-      <c r="Q9" s="24">
+      <c r="Q9" s="20">
         <v>135</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="1">
         <v>0.2107</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="1">
         <v>3.4308999999999998</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="1">
         <v>0.17879999999999999</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="1">
         <v>3.6722000000000001</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="20">
         <v>232</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="1">
         <v>0.76600000000000001</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="1">
         <v>0.79290000000000005</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="1">
         <v>0.4607</v>
       </c>
-      <c r="Z9" s="19">
+      <c r="Z9" s="15">
         <v>3.0141</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AA9" s="20">
         <v>55</v>
       </c>
-      <c r="AB9" s="18">
+      <c r="AB9" s="1">
         <v>0.84150000000000003</v>
       </c>
-      <c r="AC9" s="18">
+      <c r="AC9" s="1">
         <v>0.4617</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="1">
         <v>0.85250000000000004</v>
       </c>
-      <c r="AE9" s="18">
+      <c r="AE9" s="1">
         <v>0.42870000000000003</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="33">
         <f t="shared" si="0"/>
         <v>5.4899999999999949E-2</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="20">
         <v>140</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="1">
         <v>0.98299999999999998</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="1">
         <v>4.87E-2</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="1">
         <v>0.90759999999999996</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="1">
         <v>0.3674</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="29">
         <v>140</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="30">
         <v>0.98299999999999998</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="30">
         <v>4.87E-2</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="30">
         <v>0.90759999999999996</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="30">
         <v>0.3674</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="20">
         <v>134</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="1">
         <v>0.41830000000000001</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="1">
         <v>2.1307999999999998</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="1">
         <v>0.34770000000000001</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="1">
         <v>2.5036</v>
       </c>
-      <c r="Q10" s="24">
+      <c r="Q10" s="20">
         <v>123</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="1">
         <v>0.25769999999999998</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="1">
         <v>3.1444000000000001</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="1">
         <v>0.17929999999999999</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="1">
         <v>3.7757999999999998</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="20">
         <v>300</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="1">
         <v>0.80500000000000005</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="1">
         <v>0.74950000000000006</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="1">
         <v>0.44280000000000003</v>
       </c>
-      <c r="Z10" s="19">
+      <c r="Z10" s="15">
         <v>3.2534999999999998</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AA10" s="20">
         <v>70</v>
       </c>
-      <c r="AB10" s="18">
+      <c r="AB10" s="1">
         <v>0.86799999999999999</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="1">
         <v>0.37540000000000001</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="1">
         <v>0.8538</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AE10" s="1">
         <v>0.42420000000000002</v>
       </c>
-      <c r="AF10" s="37">
+      <c r="AF10" s="33">
         <f t="shared" si="0"/>
         <v>5.3799999999999959E-2</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <v>82</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="1">
         <v>0.99880000000000002</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="1">
         <v>0.94779999999999998</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="1">
         <v>0.25640000000000002</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="20">
         <v>125</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="1">
         <v>0.99490000000000001</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="1">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="1">
         <v>0.80320000000000003</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="1">
         <v>1.4717</v>
       </c>
-      <c r="Q11" s="24">
+      <c r="Q11" s="20">
         <v>177</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="1">
         <v>0.98960000000000004</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="1">
         <v>3.27E-2</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="1">
         <v>0.63139999999999996</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="1">
         <v>3.6528999999999998</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="20">
         <v>166</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="1">
         <v>0.99970000000000003</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="1">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="1">
         <v>0.38519999999999999</v>
       </c>
-      <c r="Z11" s="19">
+      <c r="Z11" s="15">
         <v>6.7637</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="20">
         <v>108</v>
       </c>
-      <c r="AB11" s="18">
+      <c r="AB11" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="AC11" s="18">
+      <c r="AC11" s="1">
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="AE11" s="18">
+      <c r="AE11" s="1">
         <v>1.4767999999999999</v>
       </c>
-      <c r="AF11" s="37">
+      <c r="AF11" s="33">
         <f t="shared" si="0"/>
         <v>0.18679999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <v>69</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="16">
         <v>0.59550000000000003</v>
       </c>
-      <c r="I12" s="20">
+      <c r="I12" s="16">
         <v>1.1394</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="16">
         <v>0.47670000000000001</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="16">
         <v>1.4172</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="21">
         <v>123</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="16">
         <v>0.33460000000000001</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="16">
         <v>2.5760000000000001</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="16">
         <v>0.34329999999999999</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="16">
         <v>2.5590000000000002</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="21">
         <v>129</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="16">
         <v>0.23080000000000001</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="16">
         <v>3.3944999999999999</v>
       </c>
-      <c r="T12" s="20">
+      <c r="T12" s="16">
         <v>0.22620000000000001</v>
       </c>
-      <c r="U12" s="20">
+      <c r="U12" s="16">
         <v>3.4752000000000001</v>
       </c>
-      <c r="V12" s="25">
+      <c r="V12" s="21">
         <v>49</v>
       </c>
-      <c r="W12" s="20">
+      <c r="W12" s="16">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="X12" s="20">
+      <c r="X12" s="16">
         <v>5.3017000000000003</v>
       </c>
-      <c r="Y12" s="20">
+      <c r="Y12" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="17">
         <v>5.3002000000000002</v>
       </c>
-      <c r="AA12" s="25">
+      <c r="AA12" s="21">
         <v>41</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="AB12" s="16">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC12" s="16">
         <v>2.3026</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD12" s="16">
         <v>0.1</v>
       </c>
-      <c r="AE12" s="20">
+      <c r="AE12" s="16">
         <v>2.3026</v>
       </c>
-      <c r="AF12" s="38">
+      <c r="AF12" s="34">
         <f t="shared" si="0"/>
         <v>0.37670000000000003</v>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47">
+        <v>20</v>
+      </c>
+      <c r="C23" s="47">
+        <v>20</v>
+      </c>
+      <c r="D23" s="46">
+        <v>1</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G23" s="46">
+        <v>0.82969999999999999</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
+        <v>2</v>
+      </c>
+      <c r="B24" s="45">
+        <v>40</v>
+      </c>
+      <c r="C24" s="16">
+        <v>1</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1.1226</v>
+      </c>
+      <c r="H24" s="17">
+        <v>0.91959999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:U1"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
